--- a/list_6.xlsx
+++ b/list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3507,11 +3507,21 @@
       <c r="C118" t="n">
         <v>1174863</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>5215354</v>
+      </c>
+      <c r="E118" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F118" t="n">
+        <v>155156781500</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5113802946000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.029999971389771</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3528,6 +3538,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>29800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1217974</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3540,7 +3566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6616,11 +6642,21 @@
       <c r="C118" t="n">
         <v>939865</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>3289296</v>
+      </c>
+      <c r="E118" t="n">
+        <v>93971129</v>
+      </c>
+      <c r="F118" t="n">
+        <v>30261523200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>864534386800</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6637,6 +6673,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3564472</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6649,7 +6701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9725,11 +9777,21 @@
       <c r="C118" t="n">
         <v>684900</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1482770</v>
+      </c>
+      <c r="E118" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6776258900</v>
+      </c>
+      <c r="G118" t="n">
+        <v>322063332890</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.099999904632568</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9739,7 +9801,7 @@
         <v>4955</v>
       </c>
       <c r="C119" t="n">
-        <v>2319223</v>
+        <v>2343164</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -9747,6 +9809,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4970</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2569101</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_6.xlsx
+++ b/list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5561,11 +5561,21 @@
       <c r="C197" t="n">
         <v>1273271</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>5018916</v>
+      </c>
+      <c r="E197" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F197" t="n">
+        <v>152073154800</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5208343840800</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.920000076293945</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5582,6 +5592,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>32200</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1968171</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5594,7 +5620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10724,11 +10750,21 @@
       <c r="C197" t="n">
         <v>845840</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3545835</v>
+      </c>
+      <c r="E197" t="n">
+        <v>93971129</v>
+      </c>
+      <c r="F197" t="n">
+        <v>34146391050</v>
+      </c>
+      <c r="G197" t="n">
+        <v>904941972270</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.769999980926514</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10745,6 +10781,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>10330</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3640422</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10757,7 +10809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15887,11 +15939,21 @@
       <c r="C197" t="n">
         <v>903853</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>1596495</v>
+      </c>
+      <c r="E197" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7727035800</v>
+      </c>
+      <c r="G197" t="n">
+        <v>341091144680</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.269999980926514</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15901,7 +15963,7 @@
         <v>4865</v>
       </c>
       <c r="C198" t="n">
-        <v>1213824</v>
+        <v>1234948</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -15909,6 +15971,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5020</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2027535</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_6.xlsx
+++ b/list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5587,11 +5587,21 @@
       <c r="C198" t="n">
         <v>4223926</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>4347975</v>
+      </c>
+      <c r="E198" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F198" t="n">
+        <v>139569997500</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5517750405600</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.529999971389771</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5608,6 +5618,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>32350</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1381825</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5620,7 +5646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10776,11 +10802,21 @@
       <c r="C198" t="n">
         <v>1532690</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>3515940</v>
+      </c>
+      <c r="E198" t="n">
+        <v>93971129</v>
+      </c>
+      <c r="F198" t="n">
+        <v>34174936800</v>
+      </c>
+      <c r="G198" t="n">
+        <v>913399373880</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.740000009536743</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10797,6 +10833,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>10360</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2516373</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10809,7 +10861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15965,11 +16017,21 @@
       <c r="C198" t="n">
         <v>1234948</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>1619831</v>
+      </c>
+      <c r="E198" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7880477815</v>
+      </c>
+      <c r="G198" t="n">
+        <v>342852979105</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.299999952316284</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15979,7 +16041,7 @@
         <v>5020</v>
       </c>
       <c r="C199" t="n">
-        <v>2027535</v>
+        <v>2068025</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -15987,6 +16049,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5040</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1326648</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_6.xlsx
+++ b/list_6.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5613,11 +5613,21 @@
       <c r="C199" t="n">
         <v>1968171</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>4317714</v>
+      </c>
+      <c r="E199" t="n">
+        <v>171892536</v>
+      </c>
+      <c r="F199" t="n">
+        <v>139030390800</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5534939659200</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.509999990463257</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5634,6 +5644,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>30950</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2002452</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5646,7 +5672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10828,11 +10854,21 @@
       <c r="C199" t="n">
         <v>3640422</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>3686298</v>
+      </c>
+      <c r="E199" t="n">
+        <v>93971129</v>
+      </c>
+      <c r="F199" t="n">
+        <v>38079458340</v>
+      </c>
+      <c r="G199" t="n">
+        <v>970721762570</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.920000076293945</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10849,6 +10885,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8780</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7659139</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10861,7 +10913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16043,11 +16095,21 @@
       <c r="C199" t="n">
         <v>2068025</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>1643974</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70473377</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8252749480</v>
+      </c>
+      <c r="G199" t="n">
+        <v>353776352540</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.329999923706055</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16057,7 +16119,7 @@
         <v>5040</v>
       </c>
       <c r="C200" t="n">
-        <v>1326648</v>
+        <v>1359744</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -16065,6 +16127,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4312703</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
